--- a/forecast_summary_B0BH9F7DKS.xlsx
+++ b/forecast_summary_B0BH9F7DKS.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>35.76122703116065</v>
       </c>
       <c r="D2" t="n">
-        <v>79.24899777406357</v>
+        <v>77.99914051475041</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>24.34462271265368</v>
       </c>
       <c r="D3" t="n">
-        <v>66.70080530145353</v>
+        <v>66.62284864939329</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>16.37694746389143</v>
       </c>
       <c r="D4" t="n">
-        <v>61.38063947441741</v>
+        <v>60.17210420339315</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>10.43545170766894</v>
       </c>
       <c r="D5" t="n">
-        <v>55.45692270489565</v>
+        <v>55.68325441659483</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>6.112867982721956</v>
       </c>
       <c r="D6" t="n">
-        <v>49.73115061791893</v>
+        <v>51.35016385624108</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>5.300001604009992</v>
       </c>
       <c r="D7" t="n">
-        <v>49.16861591268392</v>
+        <v>48.71216316002712</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>7.866206470054657</v>
       </c>
       <c r="D8" t="n">
-        <v>50.1269591674327</v>
+        <v>51.18567124701205</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>9.592173336394382</v>
       </c>
       <c r="D9" t="n">
-        <v>52.43128940975982</v>
+        <v>51.28355310672735</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>6.706750805527351</v>
       </c>
       <c r="D10" t="n">
-        <v>47.41285556347253</v>
+        <v>50.62679973111896</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>1.358237476392233</v>
       </c>
       <c r="D11" t="n">
-        <v>44.76631834114359</v>
+        <v>45.32143646300096</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>0.1771125969984947</v>
       </c>
       <c r="D12" t="n">
-        <v>42.41481340968694</v>
+        <v>47.70267241112519</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>6.94010825252181</v>
       </c>
       <c r="D13" t="n">
-        <v>48.89515432906256</v>
+        <v>49.53160852257609</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>18.25253072156831</v>
       </c>
       <c r="D14" t="n">
-        <v>64.62842921832554</v>
+        <v>64.05021229970245</v>
       </c>
       <c r="E14" t="n">
         <v>22</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
         <v>27.45609673760286</v>
       </c>
       <c r="D15" t="n">
-        <v>67.68988440021506</v>
+        <v>72.26707154416208</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>31.56508500842134</v>
       </c>
       <c r="D16" t="n">
-        <v>75.33769865004581</v>
+        <v>75.7400168098399</v>
       </c>
       <c r="E16" t="n">
         <v>21</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>32.65318783221655</v>
       </c>
       <c r="D17" t="n">
-        <v>75.66315631779617</v>
+        <v>77.45234404165271</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="n">
         <v>32.92026385275575</v>
       </c>
       <c r="D18" t="n">
-        <v>76.52921711611657</v>
+        <v>74.4321480929498</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n">
         <v>30.96209498801</v>
       </c>
       <c r="D19" t="n">
-        <v>76.34435829104783</v>
+        <v>71.0965507381915</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>24.51889645606876</v>
       </c>
       <c r="D20" t="n">
-        <v>67.34122543537879</v>
+        <v>66.21977606186192</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
         <v>15.55154992892794</v>
       </c>
       <c r="D21" t="n">
-        <v>56.370497283775</v>
+        <v>59.8280871393274</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>453</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
